--- a/05_Excel_compare/version_1.xlsx
+++ b/05_Excel_compare/version_1.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="8031230-CF01" sheetId="38" r:id="rId2"/>
-    <sheet name="8031260-CF01" sheetId="39" r:id="rId3"/>
-    <sheet name="8031280-CF01" sheetId="41" r:id="rId4"/>
+    <sheet name="8031260-CF01" sheetId="45" r:id="rId2"/>
+    <sheet name="8031280-CF01" sheetId="44" r:id="rId3"/>
+    <sheet name="8031230-CF01" sheetId="38" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -239,6 +239,13 @@
   </si>
   <si>
     <t>8031260-CF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +672,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -678,11 +771,12 @@
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,16 +793,19 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -724,14 +821,15 @@
       <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -747,14 +845,15 @@
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -770,14 +869,15 @@
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -793,14 +893,15 @@
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -816,14 +917,15 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -839,17 +941,18 @@
       <c r="E7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -865,14 +968,15 @@
       <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -888,14 +992,15 @@
       <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -911,14 +1016,15 @@
       <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -934,14 +1040,15 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -957,17 +1064,18 @@
       <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -983,14 +1091,15 @@
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1006,14 +1115,15 @@
       <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1029,14 +1139,15 @@
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1052,14 +1163,15 @@
       <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1075,14 +1187,15 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1098,14 +1211,15 @@
       <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1121,14 +1235,15 @@
       <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1144,17 +1259,18 @@
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1170,14 +1286,15 @@
       <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1193,14 +1310,15 @@
       <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1216,14 +1334,15 @@
       <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1239,14 +1358,15 @@
       <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1262,14 +1382,15 @@
       <c r="E25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1284,7 +1405,8 @@
         <v>53</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1293,89 +1415,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/05_Excel_compare/version_1.xlsx
+++ b/05_Excel_compare/version_1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="8031260-CF01" sheetId="45" r:id="rId2"/>
-    <sheet name="8031280-CF01" sheetId="44" r:id="rId3"/>
-    <sheet name="8031230-CF01" sheetId="38" r:id="rId4"/>
+    <sheet name="8031230-CF01" sheetId="38" r:id="rId2"/>
+    <sheet name="8031260-CF01" sheetId="45" r:id="rId3"/>
+    <sheet name="8031280-CF01" sheetId="44" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -672,96 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1415,4 +1329,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>